--- a/Libraries/Vehicle/Linkage/MacPherson/sm_car_data_Linkage_MacPherson.xlsx
+++ b/Libraries/Vehicle/Linkage/MacPherson/sm_car_data_Linkage_MacPherson.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\MacPherson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136F9A89-71CF-4106-9631-B26372987AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A136B798-2878-46F8-AF82-AAE96CA134F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="913" xr2:uid="{ACF2BADA-AF40-4151-8377-863ED7ABEE94}"/>
+    <workbookView xWindow="1290" yWindow="1185" windowWidth="23130" windowHeight="12540" tabRatio="913" activeTab="1" xr2:uid="{ACF2BADA-AF40-4151-8377-863ED7ABEE94}"/>
   </bookViews>
   <sheets>
     <sheet name="MacP_Sedan_HambaLG_f" sheetId="8" r:id="rId1"/>
-    <sheet name="DW_Sedan_Hamba_f" sheetId="7" r:id="rId2"/>
-    <sheet name="DW_Bus_Makulu_f" sheetId="6" r:id="rId3"/>
+    <sheet name="MacPherson_Sedan_Hamba_f" sheetId="7" r:id="rId2"/>
+    <sheet name="MacPherson_Bus_Makhulu_f" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="49">
   <si>
     <t>Units</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>Must be consistent with AntiRollBar</t>
+  </si>
+  <si>
+    <t>Rigid_Gimbal</t>
+  </si>
+  <si>
+    <t>Shock to Subframe</t>
   </si>
 </sst>
 </file>
@@ -271,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -321,6 +327,7 @@
     <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,10 +735,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,13 +939,13 @@
         <v>46</v>
       </c>
       <c r="F11" s="28">
-        <v>-2.6557142857142869E-3</v>
+        <v>0.03</v>
       </c>
       <c r="G11" s="27">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="H11" s="27">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="J11" s="22" t="s">
         <v>46</v>
@@ -1234,7 +1241,7 @@
       <c r="B27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="4"/>
       <c r="F27" s="5"/>
@@ -1243,8 +1250,29 @@
         <v>36</v>
       </c>
     </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="29"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A27">
+  <conditionalFormatting sqref="A27:A28">
     <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
@@ -1273,10 +1301,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1785,7 +1813,7 @@
       <c r="B27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="4"/>
       <c r="F27" s="5"/>
@@ -1794,8 +1822,24 @@
         <v>36</v>
       </c>
     </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A27">
+  <conditionalFormatting sqref="A27:A28">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
@@ -1825,10 +1869,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2343,6 +2387,22 @@
       <c r="G27" s="5"/>
       <c r="H27" s="17" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Libraries/Vehicle/Linkage/MacPherson/sm_car_data_Linkage_MacPherson.xlsx
+++ b/Libraries/Vehicle/Linkage/MacPherson/sm_car_data_Linkage_MacPherson.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\MacPherson\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vtpVDG\Libraries\Vehicle\Linkage\MacPherson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A136B798-2878-46F8-AF82-AAE96CA134F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0D5421-98A0-4A48-8569-B7337D776C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="1185" windowWidth="23130" windowHeight="12540" tabRatio="913" activeTab="1" xr2:uid="{ACF2BADA-AF40-4151-8377-863ED7ABEE94}"/>
+    <workbookView xWindow="30660" yWindow="1110" windowWidth="15330" windowHeight="13050" tabRatio="913" activeTab="1" xr2:uid="{ACF2BADA-AF40-4151-8377-863ED7ABEE94}"/>
   </bookViews>
   <sheets>
     <sheet name="MacP_Sedan_HambaLG_f" sheetId="8" r:id="rId1"/>
@@ -1303,8 +1303,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
